--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Angpt1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Angpt1-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Angpt1</t>
+  </si>
+  <si>
+    <t>Itga5</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Angpt1</t>
-  </si>
-  <si>
-    <t>Itga5</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>11.563232</v>
+        <v>0.2366953333333333</v>
       </c>
       <c r="H2">
-        <v>34.689696</v>
+        <v>0.710086</v>
       </c>
       <c r="I2">
-        <v>0.6861949287396442</v>
+        <v>0.01942010494447644</v>
       </c>
       <c r="J2">
-        <v>0.6861949287396443</v>
+        <v>0.01942010494447644</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N2">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O2">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P2">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q2">
-        <v>282.5352976220266</v>
+        <v>9.57099585109489</v>
       </c>
       <c r="R2">
-        <v>2542.81767859824</v>
+        <v>86.13896265985402</v>
       </c>
       <c r="S2">
-        <v>0.08217141195089821</v>
+        <v>0.003017990832129366</v>
       </c>
       <c r="T2">
-        <v>0.08217141195089822</v>
+        <v>0.003017990832129366</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>11.563232</v>
+        <v>0.2366953333333333</v>
       </c>
       <c r="H3">
-        <v>34.689696</v>
+        <v>0.710086</v>
       </c>
       <c r="I3">
-        <v>0.6861949287396442</v>
+        <v>0.01942010494447644</v>
       </c>
       <c r="J3">
-        <v>0.6861949287396443</v>
+        <v>0.01942010494447644</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>259.31276</v>
       </c>
       <c r="O3">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P3">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q3">
-        <v>999.4978681467734</v>
+        <v>20.45937338859556</v>
       </c>
       <c r="R3">
-        <v>8995.480813320961</v>
+        <v>184.13436049736</v>
       </c>
       <c r="S3">
-        <v>0.2906898775437471</v>
+        <v>0.00645138732463554</v>
       </c>
       <c r="T3">
-        <v>0.2906898775437471</v>
+        <v>0.00645138732463554</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>11.563232</v>
+        <v>0.2366953333333333</v>
       </c>
       <c r="H4">
-        <v>34.689696</v>
+        <v>0.710086</v>
       </c>
       <c r="I4">
-        <v>0.6861949287396442</v>
+        <v>0.01942010494447644</v>
       </c>
       <c r="J4">
-        <v>0.6861949287396443</v>
+        <v>0.01942010494447644</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N4">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O4">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P4">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q4">
-        <v>390.8662344770346</v>
+        <v>13.16753923042711</v>
       </c>
       <c r="R4">
-        <v>3517.796110293312</v>
+        <v>118.507853073844</v>
       </c>
       <c r="S4">
-        <v>0.1136779391503713</v>
+        <v>0.004152077098078224</v>
       </c>
       <c r="T4">
-        <v>0.1136779391503713</v>
+        <v>0.004152077098078224</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>11.563232</v>
+        <v>0.2366953333333333</v>
       </c>
       <c r="H5">
-        <v>34.689696</v>
+        <v>0.710086</v>
       </c>
       <c r="I5">
-        <v>0.6861949287396442</v>
+        <v>0.01942010494447644</v>
       </c>
       <c r="J5">
-        <v>0.6861949287396443</v>
+        <v>0.01942010494447644</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N5">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O5">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P5">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q5">
-        <v>103.8978982046507</v>
+        <v>1.909605245172445</v>
       </c>
       <c r="R5">
-        <v>935.081083841856</v>
+        <v>17.186447206552</v>
       </c>
       <c r="S5">
-        <v>0.03021724034505646</v>
+        <v>0.0006021495790594559</v>
       </c>
       <c r="T5">
-        <v>0.03021724034505646</v>
+        <v>0.0006021495790594562</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>11.563232</v>
+        <v>0.2366953333333333</v>
       </c>
       <c r="H6">
-        <v>34.689696</v>
+        <v>0.710086</v>
       </c>
       <c r="I6">
-        <v>0.6861949287396442</v>
+        <v>0.01942010494447644</v>
       </c>
       <c r="J6">
-        <v>0.6861949287396443</v>
+        <v>0.01942010494447644</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N6">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O6">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P6">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q6">
-        <v>293.349043322304</v>
+        <v>7.245202652751556</v>
       </c>
       <c r="R6">
-        <v>2640.141389900736</v>
+        <v>65.206823874764</v>
       </c>
       <c r="S6">
-        <v>0.08531643758184956</v>
+        <v>0.002284606066402397</v>
       </c>
       <c r="T6">
-        <v>0.08531643758184958</v>
+        <v>0.002284606066402397</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>11.563232</v>
+        <v>0.2366953333333333</v>
       </c>
       <c r="H7">
-        <v>34.689696</v>
+        <v>0.710086</v>
       </c>
       <c r="I7">
-        <v>0.6861949287396442</v>
+        <v>0.01942010494447644</v>
       </c>
       <c r="J7">
-        <v>0.6861949287396443</v>
+        <v>0.01942010494447644</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N7">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O7">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P7">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q7">
-        <v>289.2422073010773</v>
+        <v>9.234529647636222</v>
       </c>
       <c r="R7">
-        <v>2603.179865709696</v>
+        <v>83.110766828726</v>
       </c>
       <c r="S7">
-        <v>0.08412202216772152</v>
+        <v>0.002911894044171458</v>
       </c>
       <c r="T7">
-        <v>0.08412202216772155</v>
+        <v>0.002911894044171458</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.233789333333333</v>
+        <v>11.563232</v>
       </c>
       <c r="H8">
-        <v>15.701368</v>
+        <v>34.689696</v>
       </c>
       <c r="I8">
-        <v>0.3105878787716943</v>
+        <v>0.9487266849536318</v>
       </c>
       <c r="J8">
-        <v>0.3105878787716944</v>
+        <v>0.9487266849536319</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N8">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O8">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P8">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q8">
-        <v>127.8820858203244</v>
+        <v>467.5700358713494</v>
       </c>
       <c r="R8">
-        <v>1150.93877238292</v>
+        <v>4208.130322842144</v>
       </c>
       <c r="S8">
-        <v>0.03719270350828818</v>
+        <v>0.1474373308266248</v>
       </c>
       <c r="T8">
-        <v>0.0371927035082882</v>
+        <v>0.1474373308266249</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.233789333333333</v>
+        <v>11.563232</v>
       </c>
       <c r="H9">
-        <v>15.701368</v>
+        <v>34.689696</v>
       </c>
       <c r="I9">
-        <v>0.3105878787716943</v>
+        <v>0.9487266849536318</v>
       </c>
       <c r="J9">
-        <v>0.3105878787716944</v>
+        <v>0.9487266849536319</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>259.31276</v>
       </c>
       <c r="O9">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P9">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q9">
-        <v>452.3961190950756</v>
+        <v>999.4978681467734</v>
       </c>
       <c r="R9">
-        <v>4071.56507185568</v>
+        <v>8995.480813320961</v>
       </c>
       <c r="S9">
-        <v>0.1315730394751602</v>
+        <v>0.315168395194188</v>
       </c>
       <c r="T9">
-        <v>0.1315730394751603</v>
+        <v>0.315168395194188</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,14 +1024,14 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.233789333333333</v>
+        <v>11.563232</v>
       </c>
       <c r="H10">
-        <v>15.701368</v>
+        <v>34.689696</v>
       </c>
       <c r="I10">
-        <v>0.3105878787716943</v>
+        <v>0.9487266849536318</v>
       </c>
       <c r="J10">
-        <v>0.3105878787716944</v>
+        <v>0.9487266849536319</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N10">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O10">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P10">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q10">
-        <v>176.9152023211218</v>
+        <v>643.2712840016427</v>
       </c>
       <c r="R10">
-        <v>1592.236820890096</v>
+        <v>5789.441556014784</v>
       </c>
       <c r="S10">
-        <v>0.05145329483664506</v>
+        <v>0.2028406309952538</v>
       </c>
       <c r="T10">
-        <v>0.05145329483664508</v>
+        <v>0.2028406309952538</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.233789333333333</v>
+        <v>11.563232</v>
       </c>
       <c r="H11">
-        <v>15.701368</v>
+        <v>34.689696</v>
       </c>
       <c r="I11">
-        <v>0.3105878787716943</v>
+        <v>0.9487266849536318</v>
       </c>
       <c r="J11">
-        <v>0.3105878787716944</v>
+        <v>0.9487266849536319</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N11">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O11">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P11">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q11">
-        <v>47.02661949351644</v>
+        <v>93.28958102967466</v>
       </c>
       <c r="R11">
-        <v>423.239575441648</v>
+        <v>839.6062292670721</v>
       </c>
       <c r="S11">
-        <v>0.01367702993425421</v>
+        <v>0.02941669860284598</v>
       </c>
       <c r="T11">
-        <v>0.01367702993425421</v>
+        <v>0.02941669860284599</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.233789333333333</v>
+        <v>11.563232</v>
       </c>
       <c r="H12">
-        <v>15.701368</v>
+        <v>34.689696</v>
       </c>
       <c r="I12">
-        <v>0.3105878787716943</v>
+        <v>0.9487266849536318</v>
       </c>
       <c r="J12">
-        <v>0.3105878787716944</v>
+        <v>0.9487266849536319</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N12">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O12">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P12">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q12">
-        <v>132.776640119632</v>
+        <v>353.9485040999893</v>
       </c>
       <c r="R12">
-        <v>1194.989761076688</v>
+        <v>3185.536536899904</v>
       </c>
       <c r="S12">
-        <v>0.03861621568899451</v>
+        <v>0.1116094246658221</v>
       </c>
       <c r="T12">
-        <v>0.03861621568899452</v>
+        <v>0.1116094246658221</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.233789333333333</v>
+        <v>11.563232</v>
       </c>
       <c r="H13">
-        <v>15.701368</v>
+        <v>34.689696</v>
       </c>
       <c r="I13">
-        <v>0.3105878787716943</v>
+        <v>0.9487266849536318</v>
       </c>
       <c r="J13">
-        <v>0.3105878787716944</v>
+        <v>0.9487266849536319</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N13">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O13">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P13">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q13">
-        <v>130.9177900540409</v>
+        <v>451.1327165716373</v>
       </c>
       <c r="R13">
-        <v>1178.260110486368</v>
+        <v>4060.194449144736</v>
       </c>
       <c r="S13">
-        <v>0.03807559532835206</v>
+        <v>0.142254204668897</v>
       </c>
       <c r="T13">
-        <v>0.03807559532835207</v>
+        <v>0.142254204668897</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.04835900000000001</v>
+        <v>0.3882320000000001</v>
       </c>
       <c r="H14">
-        <v>0.145077</v>
+        <v>1.164696</v>
       </c>
       <c r="I14">
-        <v>0.002869759990884941</v>
+        <v>0.03185321010189179</v>
       </c>
       <c r="J14">
-        <v>0.002869759990884941</v>
+        <v>0.03185321010189179</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N14">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O14">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P14">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q14">
-        <v>1.181600823861667</v>
+        <v>15.69852184634934</v>
       </c>
       <c r="R14">
-        <v>10.634407414755</v>
+        <v>141.286696617144</v>
       </c>
       <c r="S14">
-        <v>0.0003436519573881668</v>
+        <v>0.004950163572043026</v>
       </c>
       <c r="T14">
-        <v>0.0003436519573881669</v>
+        <v>0.004950163572043026</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.04835900000000001</v>
+        <v>0.3882320000000001</v>
       </c>
       <c r="H15">
-        <v>0.145077</v>
+        <v>1.164696</v>
       </c>
       <c r="I15">
-        <v>0.002869759990884941</v>
+        <v>0.03185321010189179</v>
       </c>
       <c r="J15">
-        <v>0.002869759990884941</v>
+        <v>0.03185321010189179</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>259.31276</v>
       </c>
       <c r="O15">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P15">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q15">
-        <v>4.180035253613334</v>
+        <v>33.55783714677334</v>
       </c>
       <c r="R15">
-        <v>37.62031728252001</v>
+        <v>302.0205343209601</v>
       </c>
       <c r="S15">
-        <v>0.001215704379894658</v>
+        <v>0.01058168307987161</v>
       </c>
       <c r="T15">
-        <v>0.001215704379894658</v>
+        <v>0.01058168307987161</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.04835900000000001</v>
+        <v>0.3882320000000001</v>
       </c>
       <c r="H16">
-        <v>0.145077</v>
+        <v>1.164696</v>
       </c>
       <c r="I16">
-        <v>0.002869759990884941</v>
+        <v>0.03185321010189179</v>
       </c>
       <c r="J16">
-        <v>0.002869759990884941</v>
+        <v>0.03185321010189179</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N16">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O16">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P16">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q16">
-        <v>1.634655452132667</v>
+        <v>21.59763785164267</v>
       </c>
       <c r="R16">
-        <v>14.711899069194</v>
+        <v>194.378740664784</v>
       </c>
       <c r="S16">
-        <v>0.000475416514982386</v>
+        <v>0.006810312536542497</v>
       </c>
       <c r="T16">
-        <v>0.0004754165149823862</v>
+        <v>0.006810312536542497</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.04835900000000001</v>
+        <v>0.3882320000000001</v>
       </c>
       <c r="H17">
-        <v>0.145077</v>
+        <v>1.164696</v>
       </c>
       <c r="I17">
-        <v>0.002869759990884941</v>
+        <v>0.03185321010189179</v>
       </c>
       <c r="J17">
-        <v>0.002869759990884941</v>
+        <v>0.03185321010189179</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N17">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O17">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P17">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q17">
-        <v>0.4345150611246667</v>
+        <v>3.132169329674667</v>
       </c>
       <c r="R17">
-        <v>3.910635550122</v>
+        <v>28.18952396707201</v>
       </c>
       <c r="S17">
-        <v>0.0001263725856098524</v>
+        <v>0.0009876567150066784</v>
       </c>
       <c r="T17">
-        <v>0.0001263725856098525</v>
+        <v>0.0009876567150066786</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.04835900000000001</v>
+        <v>0.3882320000000001</v>
       </c>
       <c r="H18">
-        <v>0.145077</v>
+        <v>1.164696</v>
       </c>
       <c r="I18">
-        <v>0.002869759990884941</v>
+        <v>0.03185321010189179</v>
       </c>
       <c r="J18">
-        <v>0.002869759990884941</v>
+        <v>0.03185321010189179</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N18">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O18">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P18">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q18">
-        <v>1.226825370798</v>
+        <v>11.88371344998934</v>
       </c>
       <c r="R18">
-        <v>11.041428337182</v>
+        <v>106.953421049904</v>
       </c>
       <c r="S18">
-        <v>0.0003568048799004175</v>
+        <v>0.003747252511828999</v>
       </c>
       <c r="T18">
-        <v>0.0003568048799004175</v>
+        <v>0.003747252511828999</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.04835900000000001</v>
+        <v>0.3882320000000001</v>
       </c>
       <c r="H19">
-        <v>0.145077</v>
+        <v>1.164696</v>
       </c>
       <c r="I19">
-        <v>0.002869759990884941</v>
+        <v>0.03185321010189179</v>
       </c>
       <c r="J19">
-        <v>0.002869759990884941</v>
+        <v>0.03185321010189179</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N19">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O19">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P19">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q19">
-        <v>1.209650027161334</v>
+        <v>15.14664384663734</v>
       </c>
       <c r="R19">
-        <v>10.886850244452</v>
+        <v>136.319794619736</v>
       </c>
       <c r="S19">
-        <v>0.0003518096731094598</v>
+        <v>0.004776141686598976</v>
       </c>
       <c r="T19">
-        <v>0.00035180967310946</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.005854666666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.017564</v>
-      </c>
-      <c r="I20">
-        <v>0.0003474324977763746</v>
-      </c>
-      <c r="J20">
-        <v>0.0003474324977763746</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>24.43393833333333</v>
-      </c>
-      <c r="N20">
-        <v>73.30181499999999</v>
-      </c>
-      <c r="O20">
-        <v>0.1197493722400791</v>
-      </c>
-      <c r="P20">
-        <v>0.1197493722400791</v>
-      </c>
-      <c r="Q20">
-        <v>0.1430525642955555</v>
-      </c>
-      <c r="R20">
-        <v>1.28747307866</v>
-      </c>
-      <c r="S20">
-        <v>4.160482350452353E-05</v>
-      </c>
-      <c r="T20">
-        <v>4.160482350452355E-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.005854666666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.017564</v>
-      </c>
-      <c r="I21">
-        <v>0.0003474324977763746</v>
-      </c>
-      <c r="J21">
-        <v>0.0003474324977763746</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>86.43758666666668</v>
-      </c>
-      <c r="N21">
-        <v>259.31276</v>
-      </c>
-      <c r="O21">
-        <v>0.4236258027695808</v>
-      </c>
-      <c r="P21">
-        <v>0.4236258027695808</v>
-      </c>
-      <c r="Q21">
-        <v>0.5060632574044445</v>
-      </c>
-      <c r="R21">
-        <v>4.55456931664</v>
-      </c>
-      <c r="S21">
-        <v>0.0001471813707787573</v>
-      </c>
-      <c r="T21">
-        <v>0.0001471813707787573</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.005854666666666667</v>
-      </c>
-      <c r="H22">
-        <v>0.017564</v>
-      </c>
-      <c r="I22">
-        <v>0.0003474324977763746</v>
-      </c>
-      <c r="J22">
-        <v>0.0003474324977763746</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>33.80250733333333</v>
-      </c>
-      <c r="N22">
-        <v>101.407522</v>
-      </c>
-      <c r="O22">
-        <v>0.1656642076314483</v>
-      </c>
-      <c r="P22">
-        <v>0.1656642076314483</v>
-      </c>
-      <c r="Q22">
-        <v>0.1979024129342222</v>
-      </c>
-      <c r="R22">
-        <v>1.781121716408</v>
-      </c>
-      <c r="S22">
-        <v>5.755712944953801E-05</v>
-      </c>
-      <c r="T22">
-        <v>5.755712944953803E-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.005854666666666667</v>
-      </c>
-      <c r="H23">
-        <v>0.017564</v>
-      </c>
-      <c r="I23">
-        <v>0.0003474324977763746</v>
-      </c>
-      <c r="J23">
-        <v>0.0003474324977763746</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>8.985195333333333</v>
-      </c>
-      <c r="N23">
-        <v>26.955586</v>
-      </c>
-      <c r="O23">
-        <v>0.04403594238237437</v>
-      </c>
-      <c r="P23">
-        <v>0.04403594238237437</v>
-      </c>
-      <c r="Q23">
-        <v>0.05260532361155556</v>
-      </c>
-      <c r="R23">
-        <v>0.473447912504</v>
-      </c>
-      <c r="S23">
-        <v>1.529951745384484E-05</v>
-      </c>
-      <c r="T23">
-        <v>1.529951745384485E-05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.005854666666666667</v>
-      </c>
-      <c r="H24">
-        <v>0.017564</v>
-      </c>
-      <c r="I24">
-        <v>0.0003474324977763746</v>
-      </c>
-      <c r="J24">
-        <v>0.0003474324977763746</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>25.369122</v>
-      </c>
-      <c r="N24">
-        <v>76.107366</v>
-      </c>
-      <c r="O24">
-        <v>0.1243326553557499</v>
-      </c>
-      <c r="P24">
-        <v>0.1243326553557499</v>
-      </c>
-      <c r="Q24">
-        <v>0.148527752936</v>
-      </c>
-      <c r="R24">
-        <v>1.336749776424</v>
-      </c>
-      <c r="S24">
-        <v>4.319720500541734E-05</v>
-      </c>
-      <c r="T24">
-        <v>4.319720500541735E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.005854666666666667</v>
-      </c>
-      <c r="H25">
-        <v>0.017564</v>
-      </c>
-      <c r="I25">
-        <v>0.0003474324977763746</v>
-      </c>
-      <c r="J25">
-        <v>0.0003474324977763746</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>25.01395866666667</v>
-      </c>
-      <c r="N25">
-        <v>75.041876</v>
-      </c>
-      <c r="O25">
-        <v>0.1225920196207674</v>
-      </c>
-      <c r="P25">
-        <v>0.1225920196207674</v>
-      </c>
-      <c r="Q25">
-        <v>0.1464483900071111</v>
-      </c>
-      <c r="R25">
-        <v>1.318035510064</v>
-      </c>
-      <c r="S25">
-        <v>4.259245158429353E-05</v>
-      </c>
-      <c r="T25">
-        <v>4.259245158429354E-05</v>
+        <v>0.004776141686598976</v>
       </c>
     </row>
   </sheetData>
